--- a/DataGenerator/excel/drop_item.xlsx
+++ b/DataGenerator/excel/drop_item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="15780" windowHeight="9500"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="17000" windowHeight="11000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>KEY</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -75,27 +71,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,1;1,2;1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1;2;3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2,1;2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1;2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,1;3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1;4,2</t>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#1;1#2;1#3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#1;2#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#1;3#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4#1;4#2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,9 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -445,23 +447,24 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -474,22 +477,22 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -501,44 +504,44 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
